--- a/Files/Employees.xlsx
+++ b/Files/Employees.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="14010"/>
+    <workbookView windowWidth="27945" windowHeight="14010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="EmpData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
   <si>
     <t>FirstName</t>
   </si>
@@ -35,7 +35,7 @@
     <t>John</t>
   </si>
   <si>
-    <t xml:space="preserve">    Doe</t>
+    <t>Doe</t>
   </si>
   <si>
     <t>New York</t>
@@ -44,7 +44,7 @@
     <t>Jane</t>
   </si>
   <si>
-    <t xml:space="preserve">    Smith</t>
+    <t>Smith</t>
   </si>
   <si>
     <t>Los Angeles</t>
@@ -53,7 +53,7 @@
     <t>Alice</t>
   </si>
   <si>
-    <t xml:space="preserve">    Johnson</t>
+    <t>Johnson</t>
   </si>
   <si>
     <t>Chicago</t>
@@ -62,16 +62,28 @@
     <t>Bob</t>
   </si>
   <si>
-    <t xml:space="preserve">        White</t>
+    <t>White</t>
   </si>
   <si>
     <t>Houston</t>
   </si>
   <si>
+    <t>Map1</t>
+  </si>
+  <si>
+    <t>Map2</t>
+  </si>
+  <si>
+    <t>Map3</t>
+  </si>
+  <si>
+    <t>Map4</t>
+  </si>
+  <si>
     <t>Eve</t>
   </si>
   <si>
-    <t xml:space="preserve">        Black</t>
+    <t>Black</t>
   </si>
   <si>
     <t>Phoenix</t>
@@ -80,7 +92,7 @@
     <t>Tom</t>
   </si>
   <si>
-    <t xml:space="preserve">        Brown</t>
+    <t>Brown</t>
   </si>
   <si>
     <t>Philadelphia</t>
@@ -89,7 +101,7 @@
     <t>Lucy</t>
   </si>
   <si>
-    <t xml:space="preserve">    Green</t>
+    <t>Green</t>
   </si>
   <si>
     <t>San Antonio</t>
@@ -98,7 +110,7 @@
     <t>Mike</t>
   </si>
   <si>
-    <t xml:space="preserve">    Wilson</t>
+    <t>Wilson</t>
   </si>
   <si>
     <t>San Diego</t>
@@ -107,7 +119,7 @@
     <t>Lily</t>
   </si>
   <si>
-    <t xml:space="preserve">    Taylor</t>
+    <t>Taylor</t>
   </si>
   <si>
     <t>Dallas</t>
@@ -116,16 +128,13 @@
     <t>James</t>
   </si>
   <si>
-    <t xml:space="preserve">    Lee</t>
+    <t>Lee</t>
   </si>
   <si>
     <t>San Jose</t>
   </si>
   <si>
-    <t>Month 1 Sales</t>
-  </si>
-  <si>
-    <t>Month 2 sales</t>
+    <t>Lastname</t>
   </si>
 </sst>
 </file>
@@ -291,12 +300,48 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -617,7 +662,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,16 +686,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -659,90 +704,108 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1278,17 +1341,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.8857142857143" customWidth="1"/>
     <col min="2" max="2" width="11.4857142857143" customWidth="1"/>
     <col min="5" max="5" width="13.1238095238095" customWidth="1"/>
+    <col min="9" max="9" width="13.4" customWidth="1"/>
+    <col min="13" max="13" width="10.8285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1359,7 +1424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1375,13 +1440,25 @@
       <c r="E5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="J5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>29</v>
@@ -1390,15 +1467,27 @@
         <v>58000</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -1407,15 +1496,15 @@
         <v>67000</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>27</v>
@@ -1424,15 +1513,15 @@
         <v>51000</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>33</v>
@@ -1441,15 +1530,18 @@
         <v>64000</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>26</v>
@@ -1458,15 +1550,21 @@
         <v>52000</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>35</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>31</v>
@@ -1475,7 +1573,156 @@
         <v>61000</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="13:14">
+      <c r="M12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="8:14">
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="14" spans="8:14">
+      <c r="H14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="8:9">
+      <c r="H15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="8:9">
+      <c r="H16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9">
+      <c r="H17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>25</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>50000</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="6">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="24" spans="11:12">
+      <c r="K24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1487,24 +1734,204 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.1238095238095" customWidth="1"/>
-    <col min="2" max="2" width="18.0380952380952" customWidth="1"/>
+    <col min="1" max="1" width="14.6571428571429" customWidth="1"/>
+    <col min="2" max="2" width="11.7238095238095" customWidth="1"/>
+    <col min="5" max="5" width="15.4857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>50000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>60000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>54000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>62000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>58000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D7">
+        <v>67000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>51000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>64000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>52000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>61000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
